--- a/PrimeraUnidad/02.Planificación/Backlog Detallado del Producto.xlsx
+++ b/PrimeraUnidad/02.Planificación/Backlog Detallado del Producto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela\Desktop\IA\2.planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD82053A-A9E7-4347-998F-83E21F9C9B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5FD6BD-7242-422B-9C20-C9524D0FECFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">El ID único asignado a la tarea
 </t>
@@ -425,9 +425,6 @@
     <t>SE-19</t>
   </si>
   <si>
-    <t>SE-23</t>
-  </si>
-  <si>
     <t>Implementar la funcionalidad de resivas para consultas</t>
   </si>
   <si>
@@ -447,9 +444,6 @@
   </si>
   <si>
     <t>Desplegar el chatbot con la base de datos académica</t>
-  </si>
-  <si>
-    <t>Recopilar un feedback de estudiantes y personal</t>
   </si>
   <si>
     <t>1 y 2</t>
@@ -469,10 +463,6 @@
 Debe haber un informe de pruebas con resultados aceptables.</t>
   </si>
   <si>
-    <t>El feedback debe ser recopilado de una muestra representativa de usuarios.
-El análisis del feedback debe identificar áreas de mejora para el chatbot.</t>
-  </si>
-  <si>
     <t>La funcionalidad de reservas debe permitir a los estudiantes realizar reservas para consultas.
 Debe ser validada con casos de prueba de reservas.</t>
   </si>
@@ -513,13 +503,23 @@
   </si>
   <si>
     <t>SE-13  SE-18</t>
+  </si>
+  <si>
+    <t>SE-17</t>
+  </si>
+  <si>
+    <t>Programar respuestas automáticas para consultas frecuentes</t>
+  </si>
+  <si>
+    <t>Las respuestas deben estar alineadas a las consultas académicas identificadas.
+El chatbot debe proporcionar una respuesta en menos de 2 segundos tras recibir una consulta frecuente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -533,10 +533,12 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -579,14 +581,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,6 +643,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -699,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -737,18 +739,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,10 +759,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -773,22 +772,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,7 +796,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -818,291 +811,59 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
+  <dxfs count="61">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1121,9 +882,17 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="54"/>
       </font>
     </dxf>
     <dxf>
@@ -1142,21 +911,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="54"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="lightUp">
           <fgColor indexed="10"/>
@@ -1305,13 +1059,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightUp">
           <fgColor indexed="10"/>
           <bgColor indexed="65"/>
@@ -1549,21 +1296,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1964,8 +1696,8 @@
   </sheetPr>
   <dimension ref="B1:Q91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1988,1302 +1720,1043 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:17" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="25"/>
       <c r="Q4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="2:17" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="38">
         <v>1</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="38">
         <v>3</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="51">
+      <c r="K7" s="38"/>
+      <c r="L7" s="45">
         <v>1</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="41"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="40" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="38">
+        <v>1</v>
+      </c>
+      <c r="J8" s="38">
+        <v>1</v>
+      </c>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38">
+        <v>1</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="38">
+        <v>1</v>
+      </c>
+      <c r="J9" s="38">
+        <v>2</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="38">
+        <v>1</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="38">
+        <v>1</v>
+      </c>
+      <c r="J10" s="38">
+        <v>5</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="38">
+        <v>1</v>
+      </c>
+      <c r="J11" s="38">
+        <v>2</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="38">
+        <v>1</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="2:17" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="41">
+      <c r="H12" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="38">
         <v>1</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J12" s="38">
+        <v>2</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="38">
+        <v>2</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="38"/>
+    </row>
+    <row r="13" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="38">
         <v>1</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41">
-        <v>1</v>
-      </c>
-      <c r="M8" s="41" t="s">
+      <c r="J13" s="38">
+        <v>3</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="38">
+        <v>2</v>
+      </c>
+      <c r="M13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="41"/>
-    </row>
-    <row r="9" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="41">
-        <v>1</v>
-      </c>
-      <c r="J9" s="41">
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="42">
         <v>2</v>
       </c>
-      <c r="K9" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="41">
-        <v>1</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="41"/>
-    </row>
-    <row r="10" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="41">
-        <v>1</v>
-      </c>
-      <c r="J10" s="41">
+      <c r="J14" s="42">
         <v>5</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="41"/>
-    </row>
-    <row r="11" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="41">
-        <v>1</v>
-      </c>
-      <c r="J11" s="41">
-        <v>2</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="41">
-        <v>1</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="41"/>
-    </row>
-    <row r="12" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="41">
-        <v>1</v>
-      </c>
-      <c r="J12" s="41">
-        <v>3</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="41">
-        <v>2</v>
-      </c>
-      <c r="M12" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="41"/>
-    </row>
-    <row r="13" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="47">
-        <v>2</v>
-      </c>
-      <c r="J13" s="47">
-        <v>5</v>
-      </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="53">
-        <v>2</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="41"/>
-    </row>
-    <row r="14" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="47">
-        <v>2</v>
-      </c>
-      <c r="J14" s="47">
-        <v>3</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>103</v>
-      </c>
+      <c r="K14" s="42"/>
       <c r="L14" s="47">
         <v>2</v>
       </c>
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="42">
+        <v>2</v>
+      </c>
+      <c r="J15" s="42">
+        <v>3</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="42">
+        <v>2</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="42">
+        <v>2</v>
+      </c>
+      <c r="J16" s="42">
+        <v>2</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="42">
+        <v>2</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="2:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="38">
+        <v>2</v>
+      </c>
+      <c r="J17" s="38">
+        <v>5</v>
+      </c>
+      <c r="K17" s="38"/>
+      <c r="L17" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="38">
+        <v>2</v>
+      </c>
+      <c r="J18" s="38">
+        <v>3</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="38">
+        <v>1</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="38"/>
+    </row>
+    <row r="19" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="38">
+        <v>2</v>
+      </c>
+      <c r="J19" s="38">
+        <v>2</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="38">
+        <v>2</v>
+      </c>
+      <c r="M19" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="41"/>
-    </row>
-    <row r="15" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="47">
+      <c r="N19" s="38"/>
+    </row>
+    <row r="20" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B20" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="38">
+        <v>3</v>
+      </c>
+      <c r="J20" s="38">
+        <v>3</v>
+      </c>
+      <c r="K20" s="38"/>
+      <c r="L20" s="45">
+        <v>1</v>
+      </c>
+      <c r="M20" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="38"/>
+    </row>
+    <row r="21" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="38">
+        <v>3</v>
+      </c>
+      <c r="J21" s="38">
+        <v>3</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="38">
+        <v>1</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B22" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="38">
+        <v>1</v>
+      </c>
+      <c r="J22" s="38">
+        <v>8</v>
+      </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="38"/>
+    </row>
+    <row r="23" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="38">
+        <v>1</v>
+      </c>
+      <c r="J23" s="38">
+        <v>3</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="38">
+        <v>1</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="38"/>
+    </row>
+    <row r="24" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="42">
+        <v>1</v>
+      </c>
+      <c r="J24" s="42">
+        <v>5</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" s="42">
         <v>2</v>
       </c>
-      <c r="J15" s="47">
+      <c r="M24" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="38"/>
+    </row>
+    <row r="25" spans="2:14" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="38">
         <v>2</v>
       </c>
-      <c r="K15" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="47">
+      <c r="J25" s="38">
+        <v>5</v>
+      </c>
+      <c r="K25" s="38"/>
+      <c r="L25" s="45">
         <v>2</v>
       </c>
-      <c r="M15" s="41" t="s">
+      <c r="M25" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="41"/>
-    </row>
-    <row r="16" spans="2:17" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="41">
-        <v>2</v>
-      </c>
-      <c r="J16" s="41">
-        <v>5</v>
-      </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="M16" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="41"/>
-    </row>
-    <row r="17" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="41">
-        <v>2</v>
-      </c>
-      <c r="J17" s="41">
-        <v>3</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="41">
-        <v>1</v>
-      </c>
-      <c r="M17" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="N17" s="41"/>
-    </row>
-    <row r="18" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="41">
-        <v>2</v>
-      </c>
-      <c r="J18" s="41">
-        <v>2</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" s="41">
-        <v>2</v>
-      </c>
-      <c r="M18" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="41"/>
-    </row>
-    <row r="19" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B19" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="41">
-        <v>3</v>
-      </c>
-      <c r="J19" s="41">
-        <v>3</v>
-      </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="51">
-        <v>1</v>
-      </c>
-      <c r="M19" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" s="41"/>
-    </row>
-    <row r="20" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="41">
-        <v>3</v>
-      </c>
-      <c r="J20" s="41">
-        <v>3</v>
-      </c>
-      <c r="K20" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="41">
-        <v>1</v>
-      </c>
-      <c r="M20" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="N20" s="41"/>
-    </row>
-    <row r="21" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B21" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="41">
-        <v>1</v>
-      </c>
-      <c r="J21" s="41">
-        <v>8</v>
-      </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="M21" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="41"/>
-    </row>
-    <row r="22" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="41">
-        <v>1</v>
-      </c>
-      <c r="J22" s="41">
-        <v>3</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="41">
-        <v>1</v>
-      </c>
-      <c r="M22" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="N22" s="41"/>
-    </row>
-    <row r="23" spans="2:14" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="47">
-        <v>1</v>
-      </c>
-      <c r="J23" s="47">
-        <v>5</v>
-      </c>
-      <c r="K23" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="47">
-        <v>2</v>
-      </c>
-      <c r="M23" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" s="41"/>
-    </row>
-    <row r="24" spans="2:14" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="41">
-        <v>2</v>
-      </c>
-      <c r="J24" s="41">
-        <v>5</v>
-      </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="51">
-        <v>2</v>
-      </c>
-      <c r="M24" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="N24" s="41"/>
-    </row>
-    <row r="25" spans="2:14" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="47">
-        <v>2</v>
-      </c>
-      <c r="J25" s="47">
-        <v>5</v>
-      </c>
-      <c r="K25" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="L25" s="47">
-        <v>2</v>
-      </c>
-      <c r="M25" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="N25" s="9"/>
+      <c r="N25" s="38"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="49"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="49"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="49"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="49"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="49"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="49"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="49"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="49"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="49"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="49"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="49"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="49"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="49"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="49"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="49"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="49"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="49"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="49"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="49"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="49"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="49"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="49"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="49"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="49"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="49"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="49"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="49"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="49"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="49"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="49"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="49"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="49"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="49"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="49"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="49"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="49"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="49"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
     </row>
     <row r="67" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G67" s="6"/>
@@ -3317,264 +2790,211 @@
     <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N80:N81">
-    <cfRule type="expression" dxfId="96" priority="85" stopIfTrue="1">
-      <formula>#REF!="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="86" stopIfTrue="1">
-      <formula>#REF!="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="87" stopIfTrue="1">
-      <formula>#REF!="Removed"</formula>
+  <conditionalFormatting sqref="B26:N136 I7:N10 B7:E13 I11:L12 G13:L13 C14:C16 B14:B25 C23:E24 G24 M24:N24 C25:N25 N13 M13:M17 M9:N12">
+    <cfRule type="expression" dxfId="60" priority="91" stopIfTrue="1">
+      <formula>$M7="Terminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:L17 N17 C18:N22">
+    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
+      <formula>$M17="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="8" stopIfTrue="1">
+      <formula>$M17="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="9" stopIfTrue="1">
+      <formula>$M17="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="56" priority="25" stopIfTrue="1">
+      <formula>$M7="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="26" stopIfTrue="1">
+      <formula>$M7="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="27" stopIfTrue="1">
+      <formula>$M7="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="53" priority="169" stopIfTrue="1">
+      <formula>$M7="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="170" stopIfTrue="1">
+      <formula>$M7="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="171" stopIfTrue="1">
+      <formula>$M7="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="50" priority="28" stopIfTrue="1">
+      <formula>$M9="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="29" stopIfTrue="1">
+      <formula>$M9="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="30" stopIfTrue="1">
+      <formula>$M9="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="47" priority="55" stopIfTrue="1">
+      <formula>$M14="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="56" stopIfTrue="1">
+      <formula>$M14="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="57" stopIfTrue="1">
+      <formula>$M14="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="44" priority="52" stopIfTrue="1">
+      <formula>$M16="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="53" stopIfTrue="1">
+      <formula>$M16="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="54" stopIfTrue="1">
+      <formula>$M16="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
+      <formula>$M25="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
+      <formula>$M25="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
+      <formula>$M25="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:H12">
+    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
+      <formula>$M10="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
+      <formula>$M10="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
+      <formula>$M10="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:N23">
+    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
+      <formula>$M23="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="5" stopIfTrue="1">
+      <formula>$M23="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
+      <formula>$M23="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H9">
+    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
+      <formula>$M7="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
+      <formula>$M7="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
+      <formula>$M7="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:L19">
+    <cfRule type="expression" dxfId="29" priority="190" stopIfTrue="1">
+      <formula>$M24="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="191" stopIfTrue="1">
+      <formula>$M24="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="192" stopIfTrue="1">
+      <formula>$M24="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:N10 B7:E13 I11:L12 G13:L13 C14:C16 B14:B25 C23:E24 G24 M24:N24 C25:N25 B26:N136 N13 M13:M17 M9:N12">
+    <cfRule type="expression" dxfId="26" priority="92" stopIfTrue="1">
+      <formula>$M7="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="93" stopIfTrue="1">
+      <formula>$M7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="expression" dxfId="93" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="88" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="89" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="90" stopIfTrue="1">
+      <formula>#REF!="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N80:N81">
+    <cfRule type="expression" dxfId="21" priority="85" stopIfTrue="1">
+      <formula>#REF!="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="86" stopIfTrue="1">
+      <formula>#REF!="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="87" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N91">
-    <cfRule type="expression" dxfId="90" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="133" stopIfTrue="1">
       <formula>$M81="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="134" stopIfTrue="1">
       <formula>$M81="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="135" stopIfTrue="1">
       <formula>$M81="Removed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:N136 B13:B24 C13:C15 B7:E12 C19:N19 C17:E18 C20:E20 C24:N24 C22:E23 B25:E25 H10:H11 C16:N16 C21:N21 G25 G23 I7:N10 M13:M15 G20:N20 G18:N18 G22:N22 M23:N23 M25:N25 G12:N12 I11:L11 G17:L17 N17 M9:N11">
-    <cfRule type="expression" dxfId="87" priority="91" stopIfTrue="1">
-      <formula>$M7="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="92" stopIfTrue="1">
-      <formula>$M7="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="93" stopIfTrue="1">
-      <formula>$M7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="84" priority="163" stopIfTrue="1">
-      <formula>$M16="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="164" stopIfTrue="1">
-      <formula>$M16="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="165" stopIfTrue="1">
-      <formula>$M16="Removed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="81" priority="169" stopIfTrue="1">
-      <formula>$M7="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="170" stopIfTrue="1">
-      <formula>$M7="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="171" stopIfTrue="1">
-      <formula>$M7="Eliminado"</formula>
+    <cfRule type="expression" dxfId="15" priority="163" stopIfTrue="1">
+      <formula>$M17="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="164" stopIfTrue="1">
+      <formula>$M17="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="165" stopIfTrue="1">
+      <formula>$M17="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="expression" dxfId="75" priority="178" stopIfTrue="1">
-      <formula>$M21="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="179" stopIfTrue="1">
-      <formula>$M21="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="180" stopIfTrue="1">
-      <formula>$M21="Removed"</formula>
+    <cfRule type="expression" dxfId="12" priority="178" stopIfTrue="1">
+      <formula>$M22="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="179" stopIfTrue="1">
+      <formula>$M22="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="180" stopIfTrue="1">
+      <formula>$M22="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="69" priority="55" stopIfTrue="1">
-      <formula>$M13="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="56" stopIfTrue="1">
-      <formula>$M13="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="57" stopIfTrue="1">
-      <formula>$M13="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="66" priority="52" stopIfTrue="1">
-      <formula>$M15="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="53" stopIfTrue="1">
-      <formula>$M15="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="54" stopIfTrue="1">
-      <formula>$M15="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="48" priority="34" stopIfTrue="1">
-      <formula>$M24="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="35" stopIfTrue="1">
-      <formula>$M24="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="36" stopIfTrue="1">
-      <formula>$M24="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="45" priority="31" stopIfTrue="1">
-      <formula>$M26="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="32" stopIfTrue="1">
-      <formula>$M26="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="33" stopIfTrue="1">
-      <formula>$M26="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:L15">
-    <cfRule type="expression" dxfId="42" priority="184" stopIfTrue="1">
-      <formula>$M25="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="185" stopIfTrue="1">
-      <formula>$M25="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="186" stopIfTrue="1">
-      <formula>$M25="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:L18">
-    <cfRule type="expression" dxfId="32" priority="190" stopIfTrue="1">
-      <formula>$M23="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="191" stopIfTrue="1">
-      <formula>$M23="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="192" stopIfTrue="1">
-      <formula>$M23="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
-      <formula>$M9="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
-      <formula>$M9="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
-      <formula>$M9="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
-      <formula>$M7="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
-      <formula>$M7="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
-      <formula>$M7="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H9">
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
-      <formula>$M7="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
-      <formula>$M7="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
-      <formula>$M7="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
-      <formula>$M17="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
-      <formula>$M17="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
-      <formula>$M17="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:G11">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
-      <formula>$M11="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
-      <formula>$M11="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
-      <formula>$M11="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
-      <formula>$M17="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
-      <formula>$M17="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
-      <formula>$M17="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
-      <formula>$M18="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>$M18="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
-      <formula>$M18="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
-      <formula>$M20="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>$M20="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>$M20="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>$M22="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>$M22="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>$M22="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:G10">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>$M10="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$M10="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$M10="Eliminado"</formula>
+  <conditionalFormatting sqref="H16:L16">
+    <cfRule type="expression" dxfId="9" priority="193" stopIfTrue="1">
+      <formula>#REF!="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="194" stopIfTrue="1">
+      <formula>#REF!="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="195" stopIfTrue="1">
+      <formula>#REF!="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="M92:M201 M6 M26:M90" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Por Hacer,En Progreso,Terminado,Eliminado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I26:I62 I15" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I26:I62 I16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3610,28 +3030,28 @@
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1"/>
@@ -3640,7 +3060,7 @@
       <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="32">
         <v>45527</v>
       </c>
       <c r="D3" s="20">
@@ -3675,7 +3095,7 @@
       </c>
       <c r="F4" s="17">
         <f>IF(B4="","",SUMIF('Backlog del Producto'!L$7:L$141,Sprints!B4,'Backlog del Producto'!J$7:J$141))</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>13</v>
@@ -3960,36 +3380,36 @@
         <v>0</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="23"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B3:F17 H3:I17">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>OR($G3="Planned",$G3="Unplanned")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+      <formula>$G3="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$G18="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>$G18="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G17">
-    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>$G3="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I17 B3:F17">
-    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
-      <formula>OR($G3="Planned",$G3="Unplanned")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="7" stopIfTrue="1">
-      <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4054,6 +3474,25 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9971b3b784abbe199b171e233c6d3889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a36e787f936117f0a8f63b0cc0186e7" ns2:_="">
     <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
@@ -4198,25 +3637,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
   <ds:schemaRefs>
@@ -4226,6 +3646,38 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4241,36 +3693,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>